--- a/Hx.BackAdmin/App_Data/二手车日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/二手车日报表模板.xlsx
@@ -634,7 +634,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,15 +686,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,12 +695,15 @@
     <xf numFmtId="10" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,10 +734,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,16 +1051,16 @@
   <dimension ref="A1:AR37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN9" sqref="AN9"/>
+      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="9.875" hidden="1" customWidth="1"/>
     <col min="3" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="29" width="5.625" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="5.625" customWidth="1"/>
@@ -1077,82 +1074,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
     </row>
     <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -1271,7 +1268,7 @@
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="12"/>
@@ -1310,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="AI4" s="15"/>
-      <c r="AJ4" s="32" t="s">
+      <c r="AJ4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" s="22" t="e">
+      <c r="AK4" s="19" t="e">
         <f>AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
@@ -1340,7 +1337,7 @@
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1377,25 +1374,40 @@
         <v>0</v>
       </c>
       <c r="AI5" s="15"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="22" t="e">
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="19" t="e">
         <f>AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
+      <c r="AN5" s="13" t="e">
+        <f>AI7/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO5" s="13" t="e">
+        <f>AI10/AI8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" s="13" t="e">
+        <f>(AI21+AI22)/(AI7+AI10 +AI12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" s="13" t="e">
+        <f>AI28/(AI16+AI17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="13" t="e">
+        <f>(AI21+AI22)/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1432,8 +1444,8 @@
         <v>0</v>
       </c>
       <c r="AI6" s="15"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="22" t="e">
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="19" t="e">
         <f t="shared" ref="AK6:AK36" si="0">AH6/AI6</f>
         <v>#DIV/0!</v>
       </c>
@@ -1465,7 +1477,7 @@
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1502,8 +1514,8 @@
         <v>0</v>
       </c>
       <c r="AI7" s="15"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="22" t="e">
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1535,7 +1547,7 @@
       <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1572,8 +1584,8 @@
         <v>0</v>
       </c>
       <c r="AI8" s="15"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="22" t="e">
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1600,7 +1612,7 @@
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1637,25 +1649,40 @@
         <v>0</v>
       </c>
       <c r="AI9" s="15"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="22" t="e">
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="19"/>
+      <c r="AN9" s="33">
+        <f>AI7+AI10+AI12</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="33">
+        <f>AI21+AI22</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="33">
+        <f>AI28</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="33">
+        <f>AI29</f>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="33" t="e">
+        <f>AI29/AI28</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:44" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1692,31 +1719,31 @@
         <v>0</v>
       </c>
       <c r="AI10" s="15"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="22" t="e">
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="17">
+      <c r="AN10" s="34">
         <f>AH7+AH10+AH12</f>
         <v>0</v>
       </c>
-      <c r="AO10" s="17">
+      <c r="AO10" s="34">
         <f>AH21+AH22</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="19">
+      <c r="AP10" s="33">
         <f>AH28</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="19">
+      <c r="AQ10" s="33">
         <f>AH29</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="19" t="e">
+      <c r="AR10" s="33" t="e">
         <f>AH29/AH28</f>
         <v>#DIV/0!</v>
       </c>
@@ -1725,7 +1752,7 @@
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1762,8 +1789,8 @@
         <v>0</v>
       </c>
       <c r="AI11" s="15"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="22" t="e">
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1795,7 +1822,7 @@
       <c r="A12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1832,8 +1859,8 @@
         <v>0</v>
       </c>
       <c r="AI12" s="15"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="22" t="e">
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1842,7 +1869,7 @@
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1879,15 +1906,15 @@
         <v>0</v>
       </c>
       <c r="AI13" s="15"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="22" t="e">
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM13" s="24" t="s">
+      <c r="AM13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AN13" s="23" t="e">
+      <c r="AN13" s="35" t="e">
         <f>AH32</f>
         <v>#N/A</v>
       </c>
@@ -1896,7 +1923,7 @@
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="12"/>
@@ -1938,14 +1965,14 @@
       <c r="AJ14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AK14" s="22" t="e">
+      <c r="AK14" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="36" t="s">
+      <c r="AM14" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AN14" s="35" t="e">
+      <c r="AN14" s="21" t="e">
         <f>AH34</f>
         <v>#N/A</v>
       </c>
@@ -1954,7 +1981,7 @@
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1991,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="AI15" s="15"/>
-      <c r="AJ15" s="32" t="s">
+      <c r="AJ15" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AK15" s="22" t="e">
+      <c r="AK15" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2003,7 +2030,7 @@
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="12"/>
@@ -2042,8 +2069,8 @@
         <v>0</v>
       </c>
       <c r="AI16" s="15"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="22" t="e">
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2052,7 +2079,7 @@
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2089,8 +2116,8 @@
         <v>0</v>
       </c>
       <c r="AI17" s="15"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="22" t="e">
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2099,7 +2126,7 @@
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2136,8 +2163,8 @@
         <v>0</v>
       </c>
       <c r="AI18" s="15"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="22" t="e">
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2146,7 +2173,7 @@
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2183,8 +2210,8 @@
         <v>0</v>
       </c>
       <c r="AI19" s="15"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="22" t="e">
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2193,7 +2220,7 @@
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2230,8 +2257,8 @@
         <v>0</v>
       </c>
       <c r="AI20" s="15"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="22" t="e">
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2240,7 +2267,7 @@
       <c r="A21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="12"/>
@@ -2282,7 +2309,7 @@
       <c r="AJ21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AK21" s="22" t="e">
+      <c r="AK21" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2291,7 +2318,7 @@
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2331,7 +2358,7 @@
       <c r="AJ22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AK22" s="22" t="e">
+      <c r="AK22" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2340,7 +2367,7 @@
       <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2380,7 +2407,7 @@
       <c r="AJ23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AK23" s="22" t="e">
+      <c r="AK23" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2389,7 +2416,7 @@
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -2427,7 +2454,7 @@
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="22" t="e">
+      <c r="AK24" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2436,7 +2463,7 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2474,7 +2501,7 @@
       </c>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="22" t="e">
+      <c r="AK25" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2483,7 +2510,7 @@
       <c r="A26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -2521,7 +2548,7 @@
       </c>
       <c r="AI26" s="15"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="22" t="e">
+      <c r="AK26" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2570,7 +2597,7 @@
       </c>
       <c r="AI27" s="15"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="22" t="e">
+      <c r="AK27" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2619,7 +2646,7 @@
       </c>
       <c r="AI28" s="15"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="22" t="e">
+      <c r="AK28" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2666,7 +2693,7 @@
       </c>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="11"/>
-      <c r="AK29" s="22" t="e">
+      <c r="AK29" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2715,7 +2742,7 @@
       <c r="AJ30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AK30" s="22" t="e">
+      <c r="AK30" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2764,7 +2791,7 @@
       <c r="AJ31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AK31" s="22" t="e">
+      <c r="AK31" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2815,7 +2842,7 @@
       <c r="AJ32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AK32" s="22" t="e">
+      <c r="AK32" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2864,7 +2891,7 @@
       <c r="AJ33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AK33" s="22" t="e">
+      <c r="AK33" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2913,7 +2940,7 @@
       </c>
       <c r="AI34" s="15"/>
       <c r="AJ34" s="11"/>
-      <c r="AK34" s="22" t="e">
+      <c r="AK34" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
@@ -2962,7 +2989,7 @@
       </c>
       <c r="AI35" s="15"/>
       <c r="AJ35" s="11"/>
-      <c r="AK35" s="22" t="e">
+      <c r="AK35" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -3011,7 +3038,7 @@
       </c>
       <c r="AI36" s="15"/>
       <c r="AJ36" s="11"/>
-      <c r="AK36" s="22" t="e">
+      <c r="AK36" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>

--- a/Hx.BackAdmin/App_Data/二手车日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/二手车日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>徐选萍</t>
   </si>
@@ -317,6 +317,10 @@
       <t>0天</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅置换率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -704,6 +708,15 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,15 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,13 +1052,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AR37"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomRight" activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1071,87 +1075,88 @@
     <col min="39" max="39" width="11.125" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="14.125" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:45" ht="15" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-    </row>
-    <row r="2" spans="1:44" ht="15" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-    </row>
-    <row r="3" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+    </row>
+    <row r="3" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1264,11 +1269,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="12"/>
@@ -1307,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="15"/>
-      <c r="AJ4" s="30" t="s">
+      <c r="AJ4" s="33" t="s">
         <v>17</v>
       </c>
       <c r="AK4" s="19" t="e">
@@ -1330,14 +1335,17 @@
         <v>58</v>
       </c>
       <c r="AR4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1374,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="15"/>
-      <c r="AJ5" s="31"/>
+      <c r="AJ5" s="34"/>
       <c r="AK5" s="19" t="e">
         <f>AH5/AI5</f>
         <v>#DIV/0!</v>
@@ -1402,12 +1410,13 @@
         <f>(AI21+AI22)/AI4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="AS5" s="13"/>
+    </row>
+    <row r="6" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1444,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="15"/>
-      <c r="AJ6" s="31"/>
+      <c r="AJ6" s="34"/>
       <c r="AK6" s="19" t="e">
         <f t="shared" ref="AK6:AK36" si="0">AH6/AI6</f>
         <v>#DIV/0!</v>
@@ -1472,12 +1481,13 @@
         <f>(AH21+AH22)/AH4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="AS6" s="13"/>
+    </row>
+    <row r="7" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1514,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="15"/>
-      <c r="AJ7" s="31"/>
+      <c r="AJ7" s="34"/>
       <c r="AK7" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1542,12 +1552,16 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="AS7" s="16" t="e">
+        <f t="shared" ref="AS7" si="3">AS6/AS5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1584,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="15"/>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="34"/>
       <c r="AK8" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1607,12 +1621,13 @@
       <c r="AR8" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="AS8" s="7"/>
+    </row>
+    <row r="9" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1649,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="15"/>
-      <c r="AJ9" s="31"/>
+      <c r="AJ9" s="34"/>
       <c r="AK9" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1657,32 +1672,33 @@
       <c r="AM9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AN9" s="33">
+      <c r="AN9" s="23">
         <f>AI7+AI10+AI12</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="33">
+      <c r="AO9" s="23">
         <f>AI21+AI22</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="33">
+      <c r="AP9" s="23">
         <f>AI28</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="33">
+      <c r="AQ9" s="23">
         <f>AI29</f>
         <v>0</v>
       </c>
-      <c r="AR9" s="33" t="e">
+      <c r="AR9" s="23" t="e">
         <f>AI29/AI28</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="AS9" s="23"/>
+    </row>
+    <row r="10" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1719,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="15"/>
-      <c r="AJ10" s="31"/>
+      <c r="AJ10" s="34"/>
       <c r="AK10" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1727,32 +1743,33 @@
       <c r="AM10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="34">
+      <c r="AN10" s="24">
         <f>AH7+AH10+AH12</f>
         <v>0</v>
       </c>
-      <c r="AO10" s="34">
+      <c r="AO10" s="24">
         <f>AH21+AH22</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="33">
+      <c r="AP10" s="23">
         <f>AH28</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="33">
+      <c r="AQ10" s="23">
         <f>AH29</f>
         <v>0</v>
       </c>
-      <c r="AR10" s="33" t="e">
+      <c r="AR10" s="23" t="e">
         <f>AH29/AH28</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" ht="20.100000000000001" customHeight="1">
+      <c r="AS10" s="23"/>
+    </row>
+    <row r="11" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1785,11 +1802,11 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="15">
-        <f t="shared" ref="AH11:AH12" si="3">SUM(C11:AG11)</f>
+        <f t="shared" ref="AH11:AH12" si="4">SUM(C11:AG11)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="15"/>
-      <c r="AJ11" s="31"/>
+      <c r="AJ11" s="34"/>
       <c r="AK11" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1802,27 +1819,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO11" s="16" t="e">
-        <f t="shared" ref="AO11" si="4">AO10/AO9</f>
+        <f t="shared" ref="AO11" si="5">AO10/AO9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP11" s="16" t="e">
-        <f t="shared" ref="AP11" si="5">AP10/AP9</f>
+        <f t="shared" ref="AP11" si="6">AP10/AP9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ11" s="16" t="e">
-        <f t="shared" ref="AQ11" si="6">AQ10/AQ9</f>
+        <f t="shared" ref="AQ11" si="7">AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR11" s="16" t="e">
-        <f t="shared" ref="AR11" si="7">AR10/AR9</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="20.100000000000001" customHeight="1">
+        <f t="shared" ref="AR11" si="8">AR10/AR9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS11" s="16"/>
+    </row>
+    <row r="12" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1855,21 +1873,21 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI12" s="15"/>
-      <c r="AJ12" s="31"/>
+      <c r="AJ12" s="34"/>
       <c r="AK12" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1906,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="15"/>
-      <c r="AJ13" s="32"/>
+      <c r="AJ13" s="35"/>
       <c r="AK13" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1914,16 +1932,16 @@
       <c r="AM13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AN13" s="35" t="e">
+      <c r="AN13" s="25" t="e">
         <f>AH32</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="12"/>
@@ -1977,11 +1995,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2018,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="15"/>
-      <c r="AJ15" s="30" t="s">
+      <c r="AJ15" s="33" t="s">
         <v>16</v>
       </c>
       <c r="AK15" s="19" t="e">
@@ -2026,11 +2044,11 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="12"/>
@@ -2069,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="15"/>
-      <c r="AJ16" s="31"/>
+      <c r="AJ16" s="34"/>
       <c r="AK16" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2079,7 +2097,7 @@
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2116,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="15"/>
-      <c r="AJ17" s="31"/>
+      <c r="AJ17" s="34"/>
       <c r="AK17" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2126,7 +2144,7 @@
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2163,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="15"/>
-      <c r="AJ18" s="31"/>
+      <c r="AJ18" s="34"/>
       <c r="AK18" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2173,7 +2191,7 @@
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2210,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="15"/>
-      <c r="AJ19" s="32"/>
+      <c r="AJ19" s="35"/>
       <c r="AK19" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2267,7 +2285,7 @@
       <c r="A21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="12"/>
@@ -2318,7 +2336,7 @@
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2367,7 +2385,7 @@
       <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2416,7 +2434,7 @@
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -2463,7 +2481,7 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2510,7 +2528,7 @@
       <c r="A26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
